--- a/artfynd/A 34459-2022 artfynd.xlsx
+++ b/artfynd/A 34459-2022 artfynd.xlsx
@@ -1590,7 +1590,7 @@
         <v>130818800</v>
       </c>
       <c r="B9" t="n">
-        <v>75235</v>
+        <v>75239</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 34459-2022 artfynd.xlsx
+++ b/artfynd/A 34459-2022 artfynd.xlsx
@@ -1590,7 +1590,7 @@
         <v>130818800</v>
       </c>
       <c r="B9" t="n">
-        <v>75239</v>
+        <v>75240</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
